--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H2">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N2">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O2">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P2">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q2">
-        <v>541.5734491735648</v>
+        <v>412.0916003793245</v>
       </c>
       <c r="R2">
-        <v>4874.161042562083</v>
+        <v>3708.82440341392</v>
       </c>
       <c r="S2">
-        <v>0.01832379726925806</v>
+        <v>0.01810610600089909</v>
       </c>
       <c r="T2">
-        <v>0.01832379726925806</v>
+        <v>0.0181061060008991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H3">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I3">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J3">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.253742</v>
       </c>
       <c r="O3">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P3">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q3">
-        <v>211.0817985227987</v>
+        <v>177.6201683603947</v>
       </c>
       <c r="R3">
-        <v>1899.736186705188</v>
+        <v>1598.581515243552</v>
       </c>
       <c r="S3">
-        <v>0.007141819986309132</v>
+        <v>0.007804113438057359</v>
       </c>
       <c r="T3">
-        <v>0.007141819986309132</v>
+        <v>0.007804113438057362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H4">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I4">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J4">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N4">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O4">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P4">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q4">
-        <v>1248.270276170738</v>
+        <v>1836.637123792489</v>
       </c>
       <c r="R4">
-        <v>11234.43248553665</v>
+        <v>16529.7341141324</v>
       </c>
       <c r="S4">
-        <v>0.04223444024572735</v>
+        <v>0.08069649179445318</v>
       </c>
       <c r="T4">
-        <v>0.04223444024572736</v>
+        <v>0.08069649179445321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H5">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I5">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J5">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N5">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O5">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P5">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q5">
-        <v>161.0660778241435</v>
+        <v>97.45399407944356</v>
       </c>
       <c r="R5">
-        <v>1449.594700417292</v>
+        <v>877.085946714992</v>
       </c>
       <c r="S5">
-        <v>0.00544956951177696</v>
+        <v>0.004281844971819832</v>
       </c>
       <c r="T5">
-        <v>0.00544956951177696</v>
+        <v>0.004281844971819833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H6">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I6">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J6">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N6">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O6">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P6">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q6">
-        <v>1806.006203567988</v>
+        <v>926.1311818477476</v>
       </c>
       <c r="R6">
-        <v>16254.05583211189</v>
+        <v>8335.180636629728</v>
       </c>
       <c r="S6">
-        <v>0.06110508480742842</v>
+        <v>0.04069150968822948</v>
       </c>
       <c r="T6">
-        <v>0.06110508480742842</v>
+        <v>0.04069150968822949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>133.641392</v>
       </c>
       <c r="I7">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J7">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N7">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O7">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P7">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q7">
-        <v>733.5339313125723</v>
+        <v>663.3078150597156</v>
       </c>
       <c r="R7">
-        <v>6601.805381813151</v>
+        <v>5969.770335537441</v>
       </c>
       <c r="S7">
-        <v>0.02481865953363196</v>
+        <v>0.02914381559740849</v>
       </c>
       <c r="T7">
-        <v>0.02481865953363196</v>
+        <v>0.0291438155974085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>133.641392</v>
       </c>
       <c r="I8">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J8">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.253742</v>
       </c>
       <c r="O8">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P8">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q8">
         <v>285.8996535654293</v>
@@ -948,10 +948,10 @@
         <v>2573.096882088864</v>
       </c>
       <c r="S8">
-        <v>0.009673235088016853</v>
+        <v>0.01256159899476493</v>
       </c>
       <c r="T8">
-        <v>0.009673235088016853</v>
+        <v>0.01256159899476493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>133.641392</v>
       </c>
       <c r="I9">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J9">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N9">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O9">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P9">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q9">
-        <v>1690.719152531244</v>
+        <v>2956.274179136311</v>
       </c>
       <c r="R9">
-        <v>15216.4723727812</v>
+        <v>26606.4676122268</v>
       </c>
       <c r="S9">
-        <v>0.05720441989449455</v>
+        <v>0.1298900865872843</v>
       </c>
       <c r="T9">
-        <v>0.05720441989449456</v>
+        <v>0.1298900865872843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>133.641392</v>
       </c>
       <c r="I10">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J10">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N10">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O10">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P10">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q10">
-        <v>218.1558816218418</v>
+        <v>156.8631727076605</v>
       </c>
       <c r="R10">
-        <v>1963.402934596576</v>
+        <v>1411.768554368944</v>
       </c>
       <c r="S10">
-        <v>0.007381167141843723</v>
+        <v>0.00689211143849546</v>
       </c>
       <c r="T10">
-        <v>0.007381167141843723</v>
+        <v>0.006892111438495461</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>133.641392</v>
       </c>
       <c r="I11">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J11">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N11">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O11">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P11">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q11">
-        <v>2446.144345701769</v>
+        <v>1490.712380753788</v>
       </c>
       <c r="R11">
-        <v>22015.29911131592</v>
+        <v>13416.4114267841</v>
       </c>
       <c r="S11">
-        <v>0.08276375651424564</v>
+        <v>0.06549756500238277</v>
       </c>
       <c r="T11">
-        <v>0.08276375651424564</v>
+        <v>0.06549756500238277</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H12">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I12">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J12">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N12">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O12">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P12">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q12">
-        <v>1525.139993007191</v>
+        <v>804.9531277275967</v>
       </c>
       <c r="R12">
-        <v>13726.25993706472</v>
+        <v>7244.57814954837</v>
       </c>
       <c r="S12">
-        <v>0.05160215309991148</v>
+        <v>0.0353672985398767</v>
       </c>
       <c r="T12">
-        <v>0.05160215309991148</v>
+        <v>0.0353672985398767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H13">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I13">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J13">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.253742</v>
       </c>
       <c r="O13">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P13">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q13">
-        <v>594.4333002555186</v>
+        <v>346.951769794858</v>
       </c>
       <c r="R13">
-        <v>5349.899702299667</v>
+        <v>3122.565928153722</v>
       </c>
       <c r="S13">
-        <v>0.02011227710774895</v>
+        <v>0.01524405135975302</v>
       </c>
       <c r="T13">
-        <v>0.02011227710774895</v>
+        <v>0.01524405135975302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H14">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I14">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J14">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N14">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O14">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P14">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q14">
-        <v>3515.288504588405</v>
+        <v>3587.568385127308</v>
       </c>
       <c r="R14">
-        <v>31637.59654129564</v>
+        <v>32288.11546614577</v>
       </c>
       <c r="S14">
-        <v>0.1189375771639571</v>
+        <v>0.15762731734109</v>
       </c>
       <c r="T14">
-        <v>0.1189375771639571</v>
+        <v>0.1576273173410901</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H15">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I15">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J15">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N15">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O15">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P15">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q15">
-        <v>453.5826436492902</v>
+        <v>190.3603404475763</v>
       </c>
       <c r="R15">
-        <v>4082.243792843612</v>
+        <v>1713.243064028187</v>
       </c>
       <c r="S15">
-        <v>0.01534668366731558</v>
+        <v>0.008363879533915356</v>
       </c>
       <c r="T15">
-        <v>0.01534668366731558</v>
+        <v>0.008363879533915356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H16">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I16">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J16">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N16">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O16">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P16">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q16">
-        <v>5085.94410025792</v>
+        <v>1809.044859997595</v>
       </c>
       <c r="R16">
-        <v>45773.49690232128</v>
+        <v>16281.40373997836</v>
       </c>
       <c r="S16">
-        <v>0.172079722073004</v>
+        <v>0.07948416799892993</v>
       </c>
       <c r="T16">
-        <v>0.172079722073004</v>
+        <v>0.07948416799892993</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H17">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I17">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J17">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N17">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O17">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P17">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q17">
-        <v>206.11111763004</v>
+        <v>169.9503288064422</v>
       </c>
       <c r="R17">
-        <v>1855.00005867036</v>
+        <v>1529.55295925798</v>
       </c>
       <c r="S17">
-        <v>0.006973640122417955</v>
+        <v>0.007467123002324327</v>
       </c>
       <c r="T17">
-        <v>0.006973640122417955</v>
+        <v>0.007467123002324328</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H18">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I18">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J18">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.253742</v>
       </c>
       <c r="O18">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P18">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q18">
-        <v>80.33315789628</v>
+        <v>73.25217497206533</v>
       </c>
       <c r="R18">
-        <v>722.99842106652</v>
+        <v>659.2695747485881</v>
       </c>
       <c r="S18">
-        <v>0.002718021907346087</v>
+        <v>0.003218487451866944</v>
       </c>
       <c r="T18">
-        <v>0.002718021907346087</v>
+        <v>0.003218487451866944</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H19">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I19">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J19">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N19">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O19">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P19">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q19">
-        <v>475.0646142614999</v>
+        <v>757.4458756240946</v>
       </c>
       <c r="R19">
-        <v>4275.581528353499</v>
+        <v>6817.01288061685</v>
       </c>
       <c r="S19">
-        <v>0.01607351264137805</v>
+        <v>0.03327996809779617</v>
       </c>
       <c r="T19">
-        <v>0.01607351264137805</v>
+        <v>0.03327996809779618</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H20">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I20">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J20">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N20">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O20">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P20">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q20">
-        <v>61.29825855252</v>
+        <v>40.19091464629979</v>
       </c>
       <c r="R20">
-        <v>551.68432697268</v>
+        <v>361.7182318166981</v>
       </c>
       <c r="S20">
-        <v>0.00207398805164647</v>
+        <v>0.001765871860016447</v>
       </c>
       <c r="T20">
-        <v>0.00207398805164647</v>
+        <v>0.001765871860016447</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H21">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I21">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J21">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N21">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O21">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P21">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q21">
-        <v>687.3268208259</v>
+        <v>381.9449334275258</v>
       </c>
       <c r="R21">
-        <v>6185.941387433099</v>
+        <v>3437.504400847732</v>
       </c>
       <c r="S21">
-        <v>0.02325527099187824</v>
+        <v>0.0167815491623209</v>
       </c>
       <c r="T21">
-        <v>0.02325527099187824</v>
+        <v>0.0167815491623209</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H22">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I22">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J22">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N22">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O22">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P22">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q22">
-        <v>1027.566589269004</v>
+        <v>668.3369303672312</v>
       </c>
       <c r="R22">
-        <v>9248.099303421031</v>
+        <v>6015.03237330508</v>
       </c>
       <c r="S22">
-        <v>0.03476706971355577</v>
+        <v>0.02936478029255104</v>
       </c>
       <c r="T22">
-        <v>0.03476706971355577</v>
+        <v>0.02936478029255104</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H23">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I23">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J23">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.253742</v>
       </c>
       <c r="O23">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P23">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q23">
-        <v>400.5008075928153</v>
+        <v>288.0673082975387</v>
       </c>
       <c r="R23">
-        <v>3604.507268335338</v>
+        <v>2592.605774677848</v>
       </c>
       <c r="S23">
-        <v>0.01355069310673122</v>
+        <v>0.01265683943722188</v>
       </c>
       <c r="T23">
-        <v>0.01355069310673122</v>
+        <v>0.01265683943722189</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H24">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I24">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J24">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N24">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O24">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P24">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q24">
-        <v>2368.433740849002</v>
+        <v>2978.688273151122</v>
       </c>
       <c r="R24">
-        <v>21315.90366764102</v>
+        <v>26808.1944583601</v>
       </c>
       <c r="S24">
-        <v>0.0801344670408299</v>
+        <v>0.1308748966677924</v>
       </c>
       <c r="T24">
-        <v>0.08013446704082991</v>
+        <v>0.1308748966677925</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H25">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I25">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J25">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N25">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O25">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P25">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q25">
-        <v>305.6023527173491</v>
+        <v>158.0524892891009</v>
       </c>
       <c r="R25">
-        <v>2750.421174456142</v>
+        <v>1422.472403601908</v>
       </c>
       <c r="S25">
-        <v>0.01033986353050768</v>
+        <v>0.006944366548942666</v>
       </c>
       <c r="T25">
-        <v>0.01033986353050768</v>
+        <v>0.006944366548942667</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H26">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I26">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J26">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N26">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O26">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P26">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q26">
-        <v>3426.66657243064</v>
+        <v>1502.014772016097</v>
       </c>
       <c r="R26">
-        <v>30839.99915187576</v>
+        <v>13518.13294814487</v>
       </c>
       <c r="S26">
-        <v>0.1159391097890389</v>
+        <v>0.06599415919180721</v>
       </c>
       <c r="T26">
-        <v>0.1159391097890389</v>
+        <v>0.06599415919180721</v>
       </c>
     </row>
   </sheetData>
